--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/EHS_KeHoach_AntoanBucXa.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/EHS_KeHoach_AntoanBucXa.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -270,6 +270,9 @@
   <si>
     <t>Trước 25/11 
 11/25일전</t>
+  </si>
+  <si>
+    <t>Năm</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -312,7 +315,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +340,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,11 +383,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,13 +438,17 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +741,7 @@
     <col min="15" max="26" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -796,8 +820,11 @@
       <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="AA1" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -874,8 +901,11 @@
       <c r="Z2" s="6">
         <v>0</v>
       </c>
+      <c r="AA2" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -952,8 +982,11 @@
       <c r="Z3" s="6">
         <v>0</v>
       </c>
+      <c r="AA3" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1030,8 +1063,11 @@
       <c r="Z4" s="6">
         <v>0</v>
       </c>
+      <c r="AA4" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1106,8 +1142,11 @@
       <c r="Z5" s="6">
         <v>0</v>
       </c>
+      <c r="AA5" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1180,8 +1219,11 @@
       <c r="Z6" s="6">
         <v>0</v>
       </c>
+      <c r="AA6" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1254,8 +1296,11 @@
       <c r="Z7" s="6">
         <v>0</v>
       </c>
+      <c r="AA7" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1326,8 +1371,11 @@
       <c r="Z8" s="6">
         <v>0</v>
       </c>
+      <c r="AA8" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1398,8 +1446,11 @@
       <c r="Z9" s="6">
         <v>0</v>
       </c>
+      <c r="AA9" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1470,8 +1521,11 @@
       <c r="Z10" s="6">
         <v>0</v>
       </c>
+      <c r="AA10" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1542,8 +1596,11 @@
       <c r="Z11" s="6">
         <v>0</v>
       </c>
+      <c r="AA11" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1610,8 +1667,11 @@
       <c r="Z12" s="6">
         <v>0</v>
       </c>
+      <c r="AA12" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Z13" s="6">
         <v>0</v>
       </c>
+      <c r="AA13" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1756,8 +1819,11 @@
       <c r="Z14" s="6">
         <v>3200000</v>
       </c>
+      <c r="AA14" s="19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1823,6 +1889,9 @@
       </c>
       <c r="Z15" s="6">
         <v>0</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
